--- a/Encoder-tests.xlsx
+++ b/Encoder-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltonk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38EA77C-9C4A-476A-9255-6F0FAE39232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC0D7A-20FB-46A1-B234-29BEBDDFD3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="1320" windowWidth="28770" windowHeight="15015" xr2:uid="{5D5F2560-3BF5-42AA-92D1-A765766D9BBF}"/>
+    <workbookView xWindow="33315" yWindow="1320" windowWidth="28770" windowHeight="19590" xr2:uid="{5D5F2560-3BF5-42AA-92D1-A765766D9BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Right</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Deviation in cm</t>
   </si>
   <si>
-    <t>Avg per 1m</t>
+    <t>Raw Ticks</t>
+  </si>
+  <si>
+    <t>Normalised to per M</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64248E-F134-48A8-B6B5-7E529C924F7E}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,12 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,12 +491,6 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -498,14 +500,8 @@
       <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,14 +514,6 @@
       <c r="E4" s="1">
         <v>5571</v>
       </c>
-      <c r="F4" s="1">
-        <f>AVERAGE(C4:E4)*2</f>
-        <v>11298.666666666666</v>
-      </c>
-      <c r="G4" s="1">
-        <f>(MAX(C4:E4)-MIN(C4:E4))*2/F4*100</f>
-        <v>2.4958697191409014</v>
-      </c>
       <c r="I4" s="1">
         <v>-5785</v>
       </c>
@@ -535,16 +523,8 @@
       <c r="K4" s="1">
         <v>-5604</v>
       </c>
-      <c r="L4" s="1">
-        <f>AVERAGE(I4:K4)*2</f>
-        <v>-11302.666666666666</v>
-      </c>
-      <c r="M4" s="1">
-        <f>(MAX(I4:K4)-MIN(I4:K4))*2/L4*100</f>
-        <v>-3.8928866344225552</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -557,14 +537,6 @@
       <c r="E5" s="1">
         <v>11214</v>
       </c>
-      <c r="F5" s="1">
-        <f>AVERAGE(C5-C4,D5-D4,E5-E4)*2</f>
-        <v>10948</v>
-      </c>
-      <c r="G5" s="1">
-        <f>(MAX(C5:E5)-MIN(C5:E5))*2/F5*100</f>
-        <v>3.945926196565583</v>
-      </c>
       <c r="I5" s="1">
         <v>-11283</v>
       </c>
@@ -574,16 +546,8 @@
       <c r="K5" s="1">
         <v>-11268</v>
       </c>
-      <c r="L5" s="1">
-        <f>AVERAGE(I5-I4,J5-J4,K5-K4)*2</f>
-        <v>-11182.666666666666</v>
-      </c>
-      <c r="M5" s="1">
-        <f>(MAX(I5:K5)-MIN(I5:K5))*2/L5*100</f>
-        <v>-1.895791105281984</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,14 +560,6 @@
       <c r="E6" s="1">
         <v>21881</v>
       </c>
-      <c r="F6" s="1">
-        <f>AVERAGE(C6-C5,D6-D5,E6-E5)</f>
-        <v>10810</v>
-      </c>
-      <c r="G6" s="1">
-        <f>(MAX(C6:E6)-MIN(C6:E6))*2/F6*100</f>
-        <v>4.7548566142460684</v>
-      </c>
       <c r="I6" s="1">
         <v>-22113</v>
       </c>
@@ -613,21 +569,13 @@
       <c r="K6" s="1">
         <v>-22176</v>
       </c>
-      <c r="L6" s="1">
-        <f>AVERAGE(I6-I5,J6-J5,K6-K5)</f>
-        <v>-10911</v>
-      </c>
-      <c r="M6" s="1">
-        <f>(MAX(I6:K6)-MIN(I6:K6))*2/L6*100</f>
-        <v>-1.154797910365686</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -640,14 +588,6 @@
       <c r="E9" s="1">
         <v>5728</v>
       </c>
-      <c r="F9" s="1">
-        <f>AVERAGE(C9:E9)*2</f>
-        <v>11451.333333333334</v>
-      </c>
-      <c r="G9" s="1">
-        <f>(MAX(C9:E9)-MIN(C9:E9))*2/F9*100</f>
-        <v>0.10479129067939687</v>
-      </c>
       <c r="I9" s="1">
         <v>-5807</v>
       </c>
@@ -657,16 +597,8 @@
       <c r="K9" s="1">
         <v>-5613</v>
       </c>
-      <c r="L9" s="1">
-        <f>AVERAGE(I9:K9)*2</f>
-        <v>-11334.666666666666</v>
-      </c>
-      <c r="M9" s="1">
-        <f>(MAX(I9:K9)-MIN(I9:K9))*2/L9*100</f>
-        <v>-3.97012116221621</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,14 +611,6 @@
       <c r="E10" s="1">
         <v>11236</v>
       </c>
-      <c r="F10" s="1">
-        <f>AVERAGE(C10-C9,D10-D9,E10-E9)*2</f>
-        <v>10838.666666666666</v>
-      </c>
-      <c r="G10" s="1">
-        <f>(MAX(C10:E10)-MIN(C10:E10))*2/F10*100</f>
-        <v>4.0595399188092021</v>
-      </c>
       <c r="I10" s="1">
         <v>-11320</v>
       </c>
@@ -696,16 +620,8 @@
       <c r="K10" s="1">
         <v>-11304</v>
       </c>
-      <c r="L10" s="1">
-        <f>AVERAGE(I10-I9,J10-J9,K10-K9)*2</f>
-        <v>-11221.333333333334</v>
-      </c>
-      <c r="M10" s="1">
-        <f>(MAX(I10:K10)-MIN(I10:K10))*2/L10*100</f>
-        <v>-1.9605513307984788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,14 +634,6 @@
       <c r="E11" s="1">
         <v>21929</v>
       </c>
-      <c r="F11" s="1">
-        <f>AVERAGE(C11-C10,D11-D10,E11-E10)</f>
-        <v>10838</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(MAX(C11:E11)-MIN(C11:E11))*2/F11*100</f>
-        <v>4.9086547333456352</v>
-      </c>
       <c r="I11" s="1">
         <v>-22180</v>
       </c>
@@ -735,34 +643,14 @@
       <c r="K11" s="1">
         <v>-22123</v>
       </c>
-      <c r="L11" s="1">
-        <f>AVERAGE(I11-I10,J11-J10,K11-K10)</f>
-        <v>-10865.666666666666</v>
-      </c>
-      <c r="M11" s="1">
-        <f>(MAX(I11:K11)-MIN(I11:K11))*2/L11*100</f>
-        <v>-1.049176304567905</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="3">
-        <f>AVERAGE(F4:F11)</f>
-        <v>11030.777777777776</v>
-      </c>
-      <c r="G12" s="3">
-        <f>((MAX(C4:E4,C5-C4,D5-D4,E5-E4,(C6-C5)/2,(D6-D5)/2,(E6-E5)/2,C9:E9,C10-C9,D10-D9,E10-E9,(C11-C10)/2,(D11-E10)/2,(E11-E10)/2))-(MIN(C4:E4,C5-C4,D5-D4,E5-E4,(C6-C5)/2,(D6-D5)/2,(E6-E5)/2,C9:E9,C10-C9,D10-D9,E10-E9,(C11-C10)/2,(D11-E10)/2,(E11-E10)/2)))*2/F12*100</f>
-        <v>7.9595475286320108</v>
-      </c>
-      <c r="L12" s="3">
-        <f>AVERAGE(L4:L11)</f>
-        <v>-11136.333333333334</v>
-      </c>
-      <c r="M12" s="3">
-        <f>((MAX(I4:K4,I5-I4,J5-J4,K5-K4,(I6-I5)/2,(J6-J5)/2,(K6-K5)/2,I9:K9,I10-I9,J10-J9,K10-K9,(I11-I10)/2,(J11-K10)/2,(K11-K10)/2))-(MIN(I4:K4,I5-I4,J5-J4,K5-K4,(I6-I5)/2,(J6-J5)/2,(K6-K5)/2,I9:K9,I10-I9,J10-J9,K10-K9,(I11-I10)/2,(J11-K10)/2,(K11-K10)/2)))*2/L12*100</f>
-        <v>-7.1387949354964233</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -770,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,12 +671,6 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
@@ -798,14 +680,8 @@
       <c r="K15" s="1">
         <v>3</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -818,14 +694,6 @@
       <c r="E16" s="1">
         <v>5690</v>
       </c>
-      <c r="F16" s="1">
-        <f>AVERAGE(C16:E16)*2</f>
-        <v>11247.333333333334</v>
-      </c>
-      <c r="G16" s="1">
-        <f>(MAX(C16:E16)-MIN(C16:E16))*2/F16*100</f>
-        <v>2.080493153932784</v>
-      </c>
       <c r="I16" s="1">
         <v>-5669</v>
       </c>
@@ -835,16 +703,8 @@
       <c r="K16" s="1">
         <v>-5624</v>
       </c>
-      <c r="L16" s="1">
-        <f>AVERAGE(I16:K16)*2</f>
-        <v>-11233.333333333334</v>
-      </c>
-      <c r="M16" s="1">
-        <f>(MAX(I16:K16)-MIN(I16:K16))*2/L16*100</f>
-        <v>-1.9940652818991096</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,14 +717,6 @@
       <c r="E17" s="1">
         <v>11039</v>
       </c>
-      <c r="F17" s="1">
-        <f>AVERAGE(C17-C16,D17-D16,E17-E16)*2</f>
-        <v>10849.333333333334</v>
-      </c>
-      <c r="G17" s="1">
-        <f>(MAX(C17:E17)-MIN(C17:E17))*2/F17*100</f>
-        <v>0.42398918520339191</v>
-      </c>
       <c r="I17" s="1">
         <v>-11157</v>
       </c>
@@ -874,16 +726,8 @@
       <c r="K17" s="1">
         <v>-11130</v>
       </c>
-      <c r="L17" s="1">
-        <f>AVERAGE(I17-I16,J17-J16,K17-K16)*2</f>
-        <v>-11024</v>
-      </c>
-      <c r="M17" s="1">
-        <f>(MAX(I17:K17)-MIN(I17:K17))*2/L17*100</f>
-        <v>-1.0522496371552976</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -896,14 +740,6 @@
       <c r="E18" s="1">
         <v>21987</v>
       </c>
-      <c r="F18" s="1">
-        <f>AVERAGE(C18-C17,D18-D17,E18-E17)</f>
-        <v>10848.666666666666</v>
-      </c>
-      <c r="G18" s="1">
-        <f>(MAX(C18:E18)-MIN(C18:E18))*2/F18*100</f>
-        <v>2.5809623302402755</v>
-      </c>
       <c r="I18" s="1">
         <v>-21979</v>
       </c>
@@ -913,21 +749,13 @@
       <c r="K18" s="1">
         <v>-22094</v>
       </c>
-      <c r="L18" s="1">
-        <f>AVERAGE(I18-I17,J18-J17,K18-K17)</f>
-        <v>-10916.333333333334</v>
-      </c>
-      <c r="M18" s="1">
-        <f>(MAX(I18:K18)-MIN(I18:K18))*2/L18*100</f>
-        <v>-2.1069345628874165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -940,14 +768,6 @@
       <c r="E21" s="1">
         <v>5695</v>
       </c>
-      <c r="F21" s="1">
-        <f>AVERAGE(C21:E21)*2</f>
-        <v>11362</v>
-      </c>
-      <c r="G21" s="1">
-        <f>(MAX(C21:E21)-MIN(C21:E21))*2/F21*100</f>
-        <v>3.1684562577011093</v>
-      </c>
       <c r="I21" s="1">
         <v>-5687</v>
       </c>
@@ -957,16 +777,8 @@
       <c r="K21" s="1">
         <v>-5644</v>
       </c>
-      <c r="L21" s="1">
-        <f>AVERAGE(I21:K21)*2</f>
-        <v>-11275.333333333334</v>
-      </c>
-      <c r="M21" s="1">
-        <f>(MAX(I21:K21)-MIN(I21:K21))*2/L21*100</f>
-        <v>-1.8624726541713474</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -979,14 +791,6 @@
       <c r="E22" s="1">
         <v>11206</v>
       </c>
-      <c r="F22" s="1">
-        <f>AVERAGE(C22-C21,D22-D21,E22-E21)*2</f>
-        <v>10970</v>
-      </c>
-      <c r="G22" s="1">
-        <f>(MAX(C22:E22)-MIN(C22:E22))*2/F22*100</f>
-        <v>2.1695533272561534</v>
-      </c>
       <c r="I22" s="1">
         <v>-11191</v>
       </c>
@@ -996,16 +800,8 @@
       <c r="K22" s="1">
         <v>-11096</v>
       </c>
-      <c r="L22" s="1">
-        <f>AVERAGE(I22-I21,J22-J21,K22-K21)*2</f>
-        <v>-10976.666666666666</v>
-      </c>
-      <c r="M22" s="1">
-        <f>(MAX(I22:K22)-MIN(I22:K22))*2/L22*100</f>
-        <v>-1.8220467658669908</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1018,14 +814,6 @@
       <c r="E23" s="1">
         <v>22252</v>
       </c>
-      <c r="F23" s="1">
-        <f>AVERAGE(C23-C22,D23-D22,E23-E22)</f>
-        <v>10927</v>
-      </c>
-      <c r="G23" s="1">
-        <f>(MAX(C23:E23)-MIN(C23:E23))*2/F23*100</f>
-        <v>5.2164363503248827</v>
-      </c>
       <c r="I23" s="1">
         <v>-22052</v>
       </c>
@@ -1035,31 +823,497 @@
       <c r="K23" s="1">
         <v>-22120</v>
       </c>
-      <c r="L23" s="1">
-        <f>AVERAGE(I23-I22,J23-J22,K23-K22)</f>
-        <v>-10931.333333333334</v>
-      </c>
-      <c r="M23" s="1">
-        <f>(MAX(I23:K23)-MIN(I23:K23))*2/L23*100</f>
-        <v>-2.1955235713850092</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="3">
-        <f>AVERAGE(F16:F23)</f>
-        <v>11034.055555555557</v>
-      </c>
-      <c r="G24" s="3">
-        <f>((MAX(C16:E16,C17-C16,D17-D16,E17-E16,(C18-C17)/2,(D18-D17)/2,(E18-E17)/2,C21:E21,C22-C21,D22-D21,E22-E21,(C23-C22)/2,(D23-E22)/2,(E23-E22)/2))-(MIN(C16:E16,C17-C16,D17-D16,E17-E16,(C18-C17)/2,(D18-D17)/2,(E18-E17)/2,C21:E21,C22-C21,D22-D21,E22-E21,(C23-C22)/2,(D23-E22)/2,(E23-E22)/2)))*2/F24*100</f>
-        <v>7.5221662227548043</v>
-      </c>
-      <c r="L24" s="3">
-        <f>AVERAGE(L16:L23)</f>
-        <v>-11059.5</v>
-      </c>
-      <c r="M24" s="3">
-        <f>((MAX(I16:K16,I17-I16,J17-J16,K17-K16,(I18-I17)/2,(J18-J17)/2,(K18-K17)/2,I21:K21,I22-I21,J22-J21,K22-K21,(I23-I22)/2,(J23-K22)/2,(K23-K22)/2))-(MIN(I16:K16,I17-I16,J17-J16,K17-K16,(I18-I17)/2,(J18-J17)/2,(K18-K17)/2,I21:K21,I22-I21,J22-J21,K22-K21,(I23-I22)/2,(J23-K22)/2,(K23-K22)/2)))*2/L24*100</f>
-        <v>-4.9911840499118405</v>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C4*2</f>
+        <v>11424</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:E28" si="0">D4*2</f>
+        <v>11330</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>11142</v>
+      </c>
+      <c r="I28" s="1">
+        <f>I4*2</f>
+        <v>-11570</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28:K28" si="1">J4*2</f>
+        <v>-11130</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>-11208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(C5-C4)*2</f>
+        <v>10892</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:E29" si="2">(D5-D4)*2</f>
+        <v>10666</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>11286</v>
+      </c>
+      <c r="I29" s="1">
+        <f>(I5-I4)*2</f>
+        <v>-10996</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" ref="J29:K29" si="3">(J5-J4)*2</f>
+        <v>-11224</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>-11328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C6-C5</f>
+        <v>10930</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:E30" si="4">D6-D5</f>
+        <v>10833</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>10667</v>
+      </c>
+      <c r="G30" s="3">
+        <f>(MAX(C28:E30)-MIN(C28:E30))/AVERAGE(C28:E30)*100</f>
+        <v>6.8790965009579512</v>
+      </c>
+      <c r="I30" s="1">
+        <f>I6-I5</f>
+        <v>-10830</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" ref="J30:K30" si="5">J6-J5</f>
+        <v>-10995</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>-10908</v>
+      </c>
+      <c r="M30" s="3">
+        <f>(MAX(I28:K30)-MIN(I28:K30))/AVERAGE(I28:K30)*100</f>
+        <v>-6.6474363453073684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C9*2</f>
+        <v>11444</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:E33" si="6">D9*2</f>
+        <v>11454</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="6"/>
+        <v>11456</v>
+      </c>
+      <c r="I33" s="1">
+        <f>I9*2</f>
+        <v>-11614</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" ref="J33:K33" si="7">J9*2</f>
+        <v>-11164</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="7"/>
+        <v>-11226</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <f>(C10-C9)*2</f>
+        <v>10922</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:E34" si="8">(D10-D9)*2</f>
+        <v>10578</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="8"/>
+        <v>11016</v>
+      </c>
+      <c r="I34" s="1">
+        <f>(I10-I9)*2</f>
+        <v>-11026</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" ref="J34:K34" si="9">(J10-J9)*2</f>
+        <v>-11256</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="9"/>
+        <v>-11382</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C11-C10</f>
+        <v>10960</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:E35" si="10">D11-D10</f>
+        <v>10861</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="10"/>
+        <v>10693</v>
+      </c>
+      <c r="G35" s="3">
+        <f>(MAX(C33:E35)-MIN(C33:E35))/AVERAGE(C33:E35)*100</f>
+        <v>7.9509780246317314</v>
+      </c>
+      <c r="I35" s="1">
+        <f>I11-I10</f>
+        <v>-10860</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" ref="J35:K35" si="11">J11-J10</f>
+        <v>-10918</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="11"/>
+        <v>-10819</v>
+      </c>
+      <c r="M35" s="3">
+        <f>(MAX(I33:K35)-MIN(I33:K35))/AVERAGE(I33:K35)*100</f>
+        <v>-7.136089363187553</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C16*2</f>
+        <v>11216</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ref="D40:E40" si="12">D16*2</f>
+        <v>11146</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="12"/>
+        <v>11380</v>
+      </c>
+      <c r="I40" s="1">
+        <f>I16*2</f>
+        <v>-11338</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" ref="J40:K40" si="13">J16*2</f>
+        <v>-11114</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="13"/>
+        <v>-11248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <f>(C17-C16)*2</f>
+        <v>10872</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:E41" si="14">(D17-D16)*2</f>
+        <v>10978</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="14"/>
+        <v>10698</v>
+      </c>
+      <c r="I41" s="1">
+        <f>(I17-I16)*2</f>
+        <v>-10976</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" ref="J41:K41" si="15">(J17-J16)*2</f>
+        <v>-11084</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="15"/>
+        <v>-11012</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <f>C18-C17</f>
+        <v>10813</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:E42" si="16">D18-D17</f>
+        <v>10785</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="16"/>
+        <v>10948</v>
+      </c>
+      <c r="G42" s="3">
+        <f>(MAX(C40:E42)-MIN(C40:E42))/AVERAGE(C40:E42)*100</f>
+        <v>6.2102877494030517</v>
+      </c>
+      <c r="I42" s="1">
+        <f>I18-I17</f>
+        <v>-10822</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" ref="J42:K42" si="17">J18-J17</f>
+        <v>-10963</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="17"/>
+        <v>-10964</v>
+      </c>
+      <c r="M42" s="3">
+        <f>(MAX(I40:K42)-MIN(I40:K42))/AVERAGE(I40:K42)*100</f>
+        <v>-4.6663518252429137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <f>C21*2</f>
+        <v>11528</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D45:E45" si="18">D21*2</f>
+        <v>11168</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="18"/>
+        <v>11390</v>
+      </c>
+      <c r="I45" s="1">
+        <f>I21*2</f>
+        <v>-11374</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:K45" si="19">J21*2</f>
+        <v>-11164</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="19"/>
+        <v>-11288</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <f>(C22-C21)*2</f>
+        <v>10882</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:E46" si="20">(D22-D21)*2</f>
+        <v>11006</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="20"/>
+        <v>11022</v>
+      </c>
+      <c r="I46" s="1">
+        <f>(I22-I21)*2</f>
+        <v>-11008</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" ref="J46:K46" si="21">(J22-J21)*2</f>
+        <v>-11018</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="21"/>
+        <v>-10904</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <f>C23-C22</f>
+        <v>10855</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" ref="D47:E47" si="22">D23-D22</f>
+        <v>10880</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="22"/>
+        <v>11046</v>
+      </c>
+      <c r="G47" s="3">
+        <f>(MAX(C45:E47)-MIN(C45:E47))/AVERAGE(C45:E47)*100</f>
+        <v>6.0705372981749299</v>
+      </c>
+      <c r="I47" s="1">
+        <f>I23-I22</f>
+        <v>-10861</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" ref="J47:K47" si="23">J23-J22</f>
+        <v>-10909</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="23"/>
+        <v>-11024</v>
+      </c>
+      <c r="M47" s="3">
+        <f>(MAX(I45:K47)-MIN(I45:K47))/AVERAGE(I45:K47)*100</f>
+        <v>-4.6378704168759413</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Encoder-tests.xlsx
+++ b/Encoder-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltonk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC0D7A-20FB-46A1-B234-29BEBDDFD3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480E4167-3464-4F06-8F32-AD921DDDFBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33315" yWindow="1320" windowWidth="28770" windowHeight="19590" xr2:uid="{5D5F2560-3BF5-42AA-92D1-A765766D9BBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
   <si>
     <t>Right</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Normalised to per M</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Avrage Fwd &amp; Rev</t>
+  </si>
+  <si>
+    <t>Average no stopping and stopping</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64248E-F134-48A8-B6B5-7E529C924F7E}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +713,7 @@
         <v>-5624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +736,7 @@
         <v>-11130</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,12 +759,12 @@
         <v>-22094</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,7 +787,7 @@
         <v>-5644</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,7 +810,7 @@
         <v>-11096</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,18 +833,18 @@
         <v>-22120</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -856,6 +865,9 @@
       <c r="E27" s="1">
         <v>3</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,11 +880,17 @@
       <c r="K27" s="1">
         <v>3</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,7 +919,7 @@
         <v>-11208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -930,7 +948,7 @@
         <v>-11328</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,6 +964,10 @@
         <f t="shared" si="4"/>
         <v>10667</v>
       </c>
+      <c r="F30" s="1">
+        <f>AVERAGE(C28:E30)</f>
+        <v>11018.888888888889</v>
+      </c>
       <c r="G30" s="3">
         <f>(MAX(C28:E30)-MIN(C28:E30))/AVERAGE(C28:E30)*100</f>
         <v>6.8790965009579512</v>
@@ -962,20 +984,31 @@
         <f t="shared" si="5"/>
         <v>-10908</v>
       </c>
+      <c r="L30" s="1">
+        <f>AVERAGE(I28:K30)</f>
+        <v>-11132.111111111111</v>
+      </c>
       <c r="M30" s="3">
         <f>(MAX(I28:K30)-MIN(I28:K30))/AVERAGE(I28:K30)*100</f>
         <v>-6.6474363453073684</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <f>AVERAGE(F30,-L30)</f>
+        <v>11075.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,11 +1036,14 @@
         <f t="shared" si="7"/>
         <v>-11226</v>
       </c>
+      <c r="L33" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1072,7 @@
         <v>-11382</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,6 +1088,10 @@
         <f t="shared" si="10"/>
         <v>10693</v>
       </c>
+      <c r="F35" s="1">
+        <f>AVERAGE(C33:E35)</f>
+        <v>11042.666666666666</v>
+      </c>
       <c r="G35" s="3">
         <f>(MAX(C33:E35)-MIN(C33:E35))/AVERAGE(C33:E35)*100</f>
         <v>7.9509780246317314</v>
@@ -1068,12 +1108,30 @@
         <f t="shared" si="11"/>
         <v>-10819</v>
       </c>
+      <c r="L35" s="1">
+        <f>AVERAGE(I33:K35)</f>
+        <v>-11140.555555555555</v>
+      </c>
       <c r="M35" s="3">
         <f>(MAX(I33:K35)-MIN(I33:K35))/AVERAGE(I33:K35)*100</f>
         <v>-7.136089363187553</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
+        <f>AVERAGE(F35,-L35)</f>
+        <v>11091.611111111109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <f>(MAX(C28:E35)-MIN(C28:E35))/AVERAGE(C28:E35)*100</f>
+        <v>7.959547528632009</v>
+      </c>
+      <c r="M37" s="3">
+        <f>(MAX(I28:K35)-MIN(I28:K35))/AVERAGE(I28:K35)*100</f>
+        <v>-7.1387949354964233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1094,6 +1152,9 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,11 +1167,17 @@
       <c r="K39" s="1">
         <v>3</v>
       </c>
+      <c r="L39" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1206,7 @@
         <v>-11248</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1168,7 +1235,7 @@
         <v>-11012</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1184,6 +1251,10 @@
         <f t="shared" si="16"/>
         <v>10948</v>
       </c>
+      <c r="F42" s="1">
+        <f>AVERAGE(C40:E42)</f>
+        <v>10981.777777777777</v>
+      </c>
       <c r="G42" s="3">
         <f>(MAX(C40:E42)-MIN(C40:E42))/AVERAGE(C40:E42)*100</f>
         <v>6.2102877494030517</v>
@@ -1200,23 +1271,41 @@
         <f t="shared" si="17"/>
         <v>-10964</v>
       </c>
+      <c r="L42" s="1">
+        <f>AVERAGE(I40:K42)</f>
+        <v>-11057.888888888889</v>
+      </c>
       <c r="M42" s="3">
         <f>(MAX(I40:K42)-MIN(I40:K42))/AVERAGE(I40:K42)*100</f>
         <v>-4.6663518252429137</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O42" s="1">
+        <f>AVERAGE(F42,-L42)</f>
+        <v>11019.833333333332</v>
+      </c>
+      <c r="P42" s="1">
+        <f>AVERAGE(O30,O42)</f>
+        <v>11047.666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L44" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1334,7 @@
         <v>-11288</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1363,7 @@
         <v>-10904</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1290,6 +1379,10 @@
         <f t="shared" si="22"/>
         <v>11046</v>
       </c>
+      <c r="F47" s="1">
+        <f>AVERAGE(C45:E47)</f>
+        <v>11086.333333333334</v>
+      </c>
       <c r="G47" s="3">
         <f>(MAX(C45:E47)-MIN(C45:E47))/AVERAGE(C45:E47)*100</f>
         <v>6.0705372981749299</v>
@@ -1306,14 +1399,36 @@
         <f t="shared" si="23"/>
         <v>-11024</v>
       </c>
+      <c r="L47" s="1">
+        <f>AVERAGE(I45:K47)</f>
+        <v>-11061.111111111111</v>
+      </c>
       <c r="M47" s="3">
         <f>(MAX(I45:K47)-MIN(I45:K47))/AVERAGE(I45:K47)*100</f>
         <v>-4.6378704168759413</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O47" s="1">
+        <f>AVERAGE(F47,-L47)</f>
+        <v>11073.722222222223</v>
+      </c>
+      <c r="P47" s="1">
+        <f>AVERAGE(O35,O47)</f>
+        <v>11082.666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <f>(MAX(C40:E47)-MIN(C40:E47))/AVERAGE(C40:E47)*100</f>
+        <v>7.5221662227548043</v>
+      </c>
+      <c r="M49" s="3">
+        <f>(MAX(I40:K47)-MIN(I40:K47))/AVERAGE(I40:K47)*100</f>
+        <v>-4.9911840499118405</v>
       </c>
     </row>
   </sheetData>
